--- a/KPN_M4_global_pvalues_Hospital_x_WardEDICU_merged_allabx.xlsx
+++ b/KPN_M4_global_pvalues_Hospital_x_WardEDICU_merged_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,6 +824,51 @@
         <v>1.546244326332115e-08</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1.461620985940864e-31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Specimen_type</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>3.023770208232856e-20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hospital:Ward_ED_ICU</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>9.765691305679035e-14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
